--- a/medicine/Psychotrope/Gustave_Burger/Gustave_Burger.xlsx
+++ b/medicine/Psychotrope/Gustave_Burger/Gustave_Burger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave Burger est un homme politique français né le 6 février 1878 à Altkirch (Haut-Rhin) et décédé le 2 mai 1927 à Colmar (Haut-Rhin).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Viticulteur, il devient le premier président du syndicat de la viticulture d'Alsace. En poste de 1911 à 1926, il travaille à l'amélioration du vignoble alsacien[1] et notamment par la sélection des cépages les plus qualitatifs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viticulteur, il devient le premier président du syndicat de la viticulture d'Alsace. En poste de 1911 à 1926, il travaille à l'amélioration du vignoble alsacien et notamment par la sélection des cépages les plus qualitatifs.
 Il est député du Haut-Rhin de 1924 à 1927, inscrit au groupe des Républicains de gauche.
 Il était chevalier de la Légion d'honneur et officier du mérite agricole.
 </t>
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Gustave Burger », dans le Dictionnaire des parlementaires français (1889-1940), sous la direction de Jean Jolly, PUF, 1960 [détail de l’édition]
 Plaque commémorative de la maison des Têtes de Colmar
